--- a/data/datacall_template/00template/Eel_data_Call_2022_Annex10_Other_Sampling_Data.xlsx
+++ b/data/datacall_template/00template/Eel_data_Call_2022_Annex10_Other_Sampling_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="9105" yWindow="2445" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="station_map_5">#REF!</definedName>
     <definedName name="station_map_6">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="700">
   <si>
     <t>sampling_info</t>
   </si>
@@ -344,9 +344,6 @@
   </si>
   <si>
     <t>fi_date</t>
-  </si>
-  <si>
-    <t>Date when biological sample was collected</t>
   </si>
   <si>
     <t>fisa_lfs_code</t>
@@ -2272,19 +2269,19 @@
     <t>without unit</t>
   </si>
   <si>
-    <t>fi_id_cou</t>
-  </si>
-  <si>
     <t>fi_lfs_code</t>
   </si>
   <si>
-    <t>Indentifier used by data provider to identify the fish in its national database.</t>
-  </si>
-  <si>
-    <t>Year (For glass eel, months from september y-1 to august y should be denoted year y / For silver eel, months from june y to may y+1 should be denoted year y / For yellow eels, use the calendar year)</t>
+    <t>Indentifier used by data provider to identify the fish in its national database. To avoid confusion of id among countries, please add your cou_code and the year of the datacall before the identifier. For example, fish XXX from France collected in datacall dc2023 should be named FR23XXX</t>
+  </si>
+  <si>
+    <t>fi_idcou</t>
   </si>
   <si>
     <t>Sampling year (For glass eel, months from september y-1 to august y should be denoted year y / For silver eel, months from june y to may y+1 should be denoted year y / For yellow eels, use the calendar year)</t>
+  </si>
+  <si>
+    <t>Date of sampling - this should correspond to the date when the fish was caught - be as precise as possible</t>
   </si>
 </sst>
 </file>
@@ -2946,13 +2943,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>281520</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>380880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>357120</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>84960</xdr:rowOff>
@@ -4531,10 +4528,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AMJ82"/>
+  <dimension ref="A1:AMJ79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4680,504 +4677,480 @@
       </c>
       <c r="C18"/>
     </row>
-    <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>4</v>
+    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>700</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C49"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="14" t="s">
+      <c r="C48"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>88</v>
+        <v>697</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
         <v>696</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>4</v>
+        <v>695</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>697</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>100</v>
+        <v>43</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
+      </c>
+      <c r="B69" s="17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>109</v>
+        <v>63</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>113</v>
+        <v>67</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B73" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="5" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +5168,7 @@
   <dimension ref="A1:AMJ1"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5209,7 +5182,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>2</v>
@@ -5218,25 +5191,25 @@
         <v>90</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H1" s="34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I1" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="34" t="s">
-        <v>97</v>
-      </c>
       <c r="K1" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="34" t="s">
         <v>39</v>
@@ -5248,19 +5221,19 @@
         <v>43</v>
       </c>
       <c r="O1" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="R1" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="34" t="s">
         <v>132</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="34" t="s">
-        <v>133</v>
       </c>
       <c r="T1" s="34" t="s">
         <v>63</v>
@@ -5278,10 +5251,10 @@
         <v>71</v>
       </c>
       <c r="Y1" s="34" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA1" s="41" t="s">
         <v>77</v>
@@ -5309,104 +5282,107 @@
   <sheetPr>
     <tabColor rgb="FFE46C0A"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1"/>
+  <dimension ref="A1:AMK1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="27" max="27" width="16" customWidth="1"/>
-    <col min="1024" max="1024" width="11.5703125" customWidth="1"/>
+    <col min="28" max="28" width="16" customWidth="1"/>
+    <col min="1025" max="1025" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29 1025:1025" s="25" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A1" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="D1" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="E1" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q1" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="34" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="J1" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="34" t="s">
+      <c r="R1" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="R1" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="S1" s="34" t="s">
+      <c r="T1" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="U1" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="V1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="W1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="X1" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="X1" s="34" t="s">
-        <v>117</v>
-      </c>
       <c r="Y1" s="34" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Z1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA1" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AB1" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AC1" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="AMJ1"/>
+      <c r="AMK1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -5431,1590 +5407,1590 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>136</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>137</v>
       </c>
       <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="C2" s="43" t="s">
         <v>139</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>142</v>
-      </c>
       <c r="C3" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="43" t="s">
-        <v>144</v>
-      </c>
       <c r="C4" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="45"/>
       <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="C5" s="43" t="s">
         <v>146</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>147</v>
       </c>
       <c r="E5" s="45"/>
       <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="43" t="s">
         <v>146</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="43" t="s">
         <v>146</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>153</v>
-      </c>
       <c r="C10" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>155</v>
-      </c>
       <c r="C11" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="B14" s="43" t="s">
-        <v>159</v>
-      </c>
       <c r="C14" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="B24" s="43" t="s">
-        <v>170</v>
-      </c>
       <c r="C24" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="43" t="s">
-        <v>174</v>
-      </c>
       <c r="C27" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="B28" s="43" t="s">
-        <v>176</v>
-      </c>
       <c r="C28" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>180</v>
-      </c>
       <c r="C31" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>182</v>
-      </c>
       <c r="C32" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="43" t="s">
-        <v>192</v>
-      </c>
       <c r="C41" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="43" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="43" t="s">
-        <v>199</v>
-      </c>
       <c r="C47" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="B49" s="43" t="s">
-        <v>202</v>
-      </c>
       <c r="C49" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="43" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B60" s="43" t="s">
-        <v>214</v>
-      </c>
       <c r="C60" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B67" s="47" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="43" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="43" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="43" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="43" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="43" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="B75" s="43" t="s">
-        <v>230</v>
-      </c>
       <c r="C75" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="43" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="43" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" s="43" t="s">
         <v>235</v>
       </c>
-      <c r="B80" s="43" t="s">
-        <v>236</v>
-      </c>
       <c r="C80" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="43" t="s">
         <v>237</v>
       </c>
-      <c r="B81" s="43" t="s">
-        <v>238</v>
-      </c>
       <c r="C81" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="43" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="43" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B88" s="43" t="s">
         <v>245</v>
       </c>
-      <c r="B88" s="43" t="s">
-        <v>246</v>
-      </c>
       <c r="C88" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="43" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="B89" s="43" t="s">
-        <v>248</v>
-      </c>
       <c r="C89" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="B90" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="B90" s="43" t="s">
-        <v>250</v>
-      </c>
       <c r="C90" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="43" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="43" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="43" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="43" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="43" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
+        <v>270</v>
+      </c>
+      <c r="B111" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="B111" s="43" t="s">
-        <v>272</v>
-      </c>
       <c r="C111" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="B112" s="43" t="s">
-        <v>274</v>
-      </c>
       <c r="C112" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="B114" s="43" t="s">
         <v>276</v>
       </c>
-      <c r="B114" s="43" t="s">
-        <v>277</v>
-      </c>
       <c r="C114" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C115" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="43" t="s">
+        <v>278</v>
+      </c>
+      <c r="B116" s="43" t="s">
         <v>279</v>
       </c>
-      <c r="B116" s="43" t="s">
-        <v>280</v>
-      </c>
       <c r="C116" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="B118" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="B118" s="43" t="s">
-        <v>283</v>
-      </c>
       <c r="C118" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="B119" s="43" t="s">
         <v>284</v>
       </c>
-      <c r="B119" s="43" t="s">
-        <v>285</v>
-      </c>
       <c r="C119" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120" s="43" t="s">
         <v>286</v>
       </c>
-      <c r="B120" s="43" t="s">
-        <v>287</v>
-      </c>
       <c r="C120" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B121" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="B121" s="43" t="s">
-        <v>289</v>
-      </c>
       <c r="C121" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="B122" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="B122" s="43" t="s">
-        <v>291</v>
-      </c>
       <c r="C122" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="B124" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="B124" s="43" t="s">
-        <v>294</v>
-      </c>
       <c r="C124" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="B125" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="B125" s="43" t="s">
-        <v>296</v>
-      </c>
       <c r="C125" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C129" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="B130" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="B130" s="43" t="s">
-        <v>302</v>
-      </c>
       <c r="C130" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="B131" s="43" t="s">
         <v>303</v>
-      </c>
-      <c r="B131" s="43" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="43" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C135" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="43" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C137" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B138" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="B138" s="43" t="s">
-        <v>312</v>
-      </c>
       <c r="C138" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B139" s="43" t="s">
         <v>313</v>
       </c>
-      <c r="B139" s="43" t="s">
-        <v>314</v>
-      </c>
       <c r="C139" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B140" s="43" t="s">
         <v>315</v>
       </c>
-      <c r="B140" s="43" t="s">
-        <v>316</v>
-      </c>
       <c r="C140" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="43" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="43" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C142" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C143" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="43" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B144" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C144" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B145" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="B145" s="43" t="s">
-        <v>322</v>
-      </c>
       <c r="C145" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -7039,577 +7015,577 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>324</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="44" t="s">
         <v>325</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>326</v>
       </c>
       <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C2" s="43">
         <v>0</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" s="43">
+        <v>1</v>
+      </c>
+      <c r="D3" s="43" t="s">
         <v>329</v>
-      </c>
-      <c r="C3" s="43">
-        <v>1</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" s="43">
         <v>2</v>
       </c>
       <c r="D4" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C5" s="43">
         <v>3</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C6" s="43">
         <v>4</v>
       </c>
       <c r="D6" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="43">
         <v>5</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C8" s="43">
         <v>6</v>
       </c>
       <c r="D8" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C9" s="43">
         <v>7</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C10" s="43">
         <v>8</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C11" s="43">
         <v>9</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C12" s="43">
         <v>10</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C13" s="43">
         <v>11</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C14" s="43">
         <v>12</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C15" s="43">
         <v>13</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C16" s="43">
         <v>14</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C17" s="43">
         <v>15</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C18" s="43">
         <v>16</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C19" s="43">
         <v>17</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C20" s="43">
         <v>18</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C21" s="43">
         <v>19</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C22" s="43">
         <v>20</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C23" s="43">
         <v>21</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C24" s="43">
         <v>22</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C25" s="43">
         <v>23</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C26" s="43">
         <v>24</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C27" s="43">
         <v>25</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C28" s="43">
         <v>26</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C29" s="43">
         <v>27</v>
       </c>
       <c r="D29" s="43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C30" s="43">
         <v>28</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C31" s="43">
         <v>34</v>
       </c>
       <c r="D31" s="43" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C32" s="43">
         <v>35</v>
       </c>
       <c r="D32" s="43" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C33" s="43">
         <v>36</v>
       </c>
       <c r="D33" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C34" s="43">
         <v>37</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C35" s="43">
         <v>38</v>
       </c>
       <c r="D35" s="43" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C36" s="43">
         <v>39</v>
       </c>
       <c r="D36" s="43" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C37" s="43">
         <v>40</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C38" s="43">
         <v>41</v>
       </c>
       <c r="D38" s="43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C39" s="43">
         <v>42</v>
       </c>
       <c r="D39" s="43" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C40" s="43">
         <v>43</v>
       </c>
       <c r="D40" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>405</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>406</v>
       </c>
       <c r="C41" s="43">
         <v>46</v>
       </c>
       <c r="D41" s="43" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -7636,31 +7612,31 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="D1" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="E1" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="F1" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="G1" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="H1" s="44" t="s">
         <v>414</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="44" t="s">
         <v>415</v>
-      </c>
-      <c r="I1" s="44" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7668,16 +7644,16 @@
         <v>227</v>
       </c>
       <c r="B2" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>417</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="43">
+        <v>1</v>
+      </c>
+      <c r="E2" s="43" t="s">
         <v>418</v>
-      </c>
-      <c r="D2" s="43">
-        <v>1</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>419</v>
       </c>
       <c r="F2" s="43">
         <v>2</v>
@@ -7689,7 +7665,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="48" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7697,16 +7673,16 @@
         <v>230</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D3" s="43">
         <v>1</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F3" s="43">
         <v>2</v>
@@ -7718,10 +7694,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="48" t="s">
+        <v>419</v>
+      </c>
+      <c r="K3" s="43" t="s">
         <v>420</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7729,16 +7705,16 @@
         <v>228</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D4" s="43">
         <v>1</v>
       </c>
       <c r="E4" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F4" s="43">
         <v>2</v>
@@ -7750,13 +7726,13 @@
         <v>21.1</v>
       </c>
       <c r="I4" s="48" t="s">
+        <v>421</v>
+      </c>
+      <c r="K4" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="K4" s="45" t="s">
+      <c r="L4" s="46" t="s">
         <v>423</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7764,16 +7740,16 @@
         <v>229</v>
       </c>
       <c r="B5" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D5" s="43">
         <v>1</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" s="43">
         <v>2</v>
@@ -7785,13 +7761,13 @@
         <v>21.1</v>
       </c>
       <c r="I5" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="K5" s="45" t="s">
         <v>425</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="L5" s="46" t="s">
         <v>426</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7799,16 +7775,16 @@
         <v>231</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D6" s="43">
         <v>1</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F6" s="43">
         <v>2</v>
@@ -7820,7 +7796,7 @@
         <v>21.1</v>
       </c>
       <c r="I6" s="48" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7828,16 +7804,16 @@
         <v>195</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D7" s="43">
         <v>1</v>
       </c>
       <c r="E7" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F7" s="43">
         <v>2</v>
@@ -7849,10 +7825,10 @@
         <v>21.1</v>
       </c>
       <c r="I7" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="K7" s="43" t="s">
         <v>429</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7860,16 +7836,16 @@
         <v>196</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D8" s="43">
         <v>1</v>
       </c>
       <c r="E8" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F8" s="43">
         <v>2</v>
@@ -7881,10 +7857,10 @@
         <v>21.1</v>
       </c>
       <c r="I8" s="48" t="s">
+        <v>430</v>
+      </c>
+      <c r="K8" s="43" t="s">
         <v>431</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7892,16 +7868,16 @@
         <v>198</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D9" s="43">
         <v>1</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F9" s="43">
         <v>2</v>
@@ -7913,7 +7889,7 @@
         <v>21.1</v>
       </c>
       <c r="I9" s="48" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7921,16 +7897,16 @@
         <v>197</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D10" s="43">
         <v>1</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F10" s="43">
         <v>2</v>
@@ -7942,7 +7918,7 @@
         <v>21.2</v>
       </c>
       <c r="I10" s="48" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7950,16 +7926,16 @@
         <v>199</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D11" s="43">
         <v>1</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F11" s="43">
         <v>2</v>
@@ -7971,7 +7947,7 @@
         <v>21.2</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7979,16 +7955,16 @@
         <v>235</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D12" s="43">
         <v>1</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F12" s="43">
         <v>2</v>
@@ -8000,7 +7976,7 @@
         <v>21.2</v>
       </c>
       <c r="I12" s="48" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -8008,16 +7984,16 @@
         <v>234</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C13" s="43" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D13" s="43">
         <v>1</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F13" s="43">
         <v>2</v>
@@ -8029,7 +8005,7 @@
         <v>21.3</v>
       </c>
       <c r="I13" s="48" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -8037,16 +8013,16 @@
         <v>239</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D14" s="43">
         <v>1</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F14" s="43">
         <v>2</v>
@@ -8058,7 +8034,7 @@
         <v>21.3</v>
       </c>
       <c r="I14" s="48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -8066,16 +8042,16 @@
         <v>200</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C15" s="43" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D15" s="43">
         <v>1</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F15" s="43">
         <v>2</v>
@@ -8087,7 +8063,7 @@
         <v>21.3</v>
       </c>
       <c r="I15" s="48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -8095,16 +8071,16 @@
         <v>218</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C16" s="43" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D16" s="43">
         <v>1</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F16" s="43">
         <v>2</v>
@@ -8116,7 +8092,7 @@
         <v>21.3</v>
       </c>
       <c r="I16" s="48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -8124,16 +8100,16 @@
         <v>201</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C17" s="43" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D17" s="43">
         <v>1</v>
       </c>
       <c r="E17" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F17" s="43">
         <v>2</v>
@@ -8145,7 +8121,7 @@
         <v>21.3</v>
       </c>
       <c r="I17" s="48" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -8153,16 +8129,16 @@
         <v>240</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C18" s="43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D18" s="43">
         <v>1</v>
       </c>
       <c r="E18" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F18" s="43">
         <v>2</v>
@@ -8174,7 +8150,7 @@
         <v>21.3</v>
       </c>
       <c r="I18" s="48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -8182,16 +8158,16 @@
         <v>238</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C19" s="43" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D19" s="43">
         <v>1</v>
       </c>
       <c r="E19" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F19" s="43">
         <v>2</v>
@@ -8203,7 +8179,7 @@
         <v>21.4</v>
       </c>
       <c r="I19" s="48" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -8211,16 +8187,16 @@
         <v>233</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D20" s="43">
         <v>1</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F20" s="43">
         <v>2</v>
@@ -8232,7 +8208,7 @@
         <v>21.4</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -8240,16 +8216,16 @@
         <v>243</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C21" s="43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D21" s="43">
         <v>1</v>
       </c>
       <c r="E21" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F21" s="43">
         <v>2</v>
@@ -8261,7 +8237,7 @@
         <v>21.4</v>
       </c>
       <c r="I21" s="48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -8269,16 +8245,16 @@
         <v>219</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D22" s="43">
         <v>1</v>
       </c>
       <c r="E22" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F22" s="43">
         <v>2</v>
@@ -8290,7 +8266,7 @@
         <v>21.4</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -8298,16 +8274,16 @@
         <v>232</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C23" s="43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D23" s="43">
         <v>1</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F23" s="43">
         <v>2</v>
@@ -8319,7 +8295,7 @@
         <v>21.4</v>
       </c>
       <c r="I23" s="48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -8327,16 +8303,16 @@
         <v>241</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C24" s="43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D24" s="43">
         <v>1</v>
       </c>
       <c r="E24" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F24" s="43">
         <v>2</v>
@@ -8348,7 +8324,7 @@
         <v>21.4</v>
       </c>
       <c r="I24" s="48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -8356,16 +8332,16 @@
         <v>242</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D25" s="43">
         <v>1</v>
       </c>
       <c r="E25" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F25" s="43">
         <v>2</v>
@@ -8377,7 +8353,7 @@
         <v>21.5</v>
       </c>
       <c r="I25" s="48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -8385,16 +8361,16 @@
         <v>220</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C26" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D26" s="43">
         <v>1</v>
       </c>
       <c r="E26" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F26" s="43">
         <v>2</v>
@@ -8406,7 +8382,7 @@
         <v>21.5</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -8414,16 +8390,16 @@
         <v>236</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C27" s="43" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D27" s="43">
         <v>1</v>
       </c>
       <c r="E27" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F27" s="43">
         <v>2</v>
@@ -8435,7 +8411,7 @@
         <v>21.6</v>
       </c>
       <c r="I27" s="48" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -8443,16 +8419,16 @@
         <v>221</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C28" s="43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D28" s="43">
         <v>1</v>
       </c>
       <c r="E28" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F28" s="43">
         <v>2</v>
@@ -8464,7 +8440,7 @@
         <v>21.6</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -8472,16 +8448,16 @@
         <v>237</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C29" s="43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D29" s="43">
         <v>1</v>
       </c>
       <c r="E29" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F29" s="43">
         <v>2</v>
@@ -8493,7 +8469,7 @@
         <v>21.6</v>
       </c>
       <c r="I29" s="48" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -8501,16 +8477,16 @@
         <v>222</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C30" s="43" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D30" s="43">
         <v>1</v>
       </c>
       <c r="E30" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F30" s="43">
         <v>2</v>
@@ -8522,7 +8498,7 @@
         <v>21.6</v>
       </c>
       <c r="I30" s="48" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -8530,16 +8506,16 @@
         <v>223</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C31" s="43" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D31" s="43">
         <v>1</v>
       </c>
       <c r="E31" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F31" s="43">
         <v>2</v>
@@ -8551,7 +8527,7 @@
         <v>21.6</v>
       </c>
       <c r="I31" s="48" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -8559,16 +8535,16 @@
         <v>224</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C32" s="43" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D32" s="43">
         <v>1</v>
       </c>
       <c r="E32" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F32" s="43">
         <v>2</v>
@@ -8580,7 +8556,7 @@
         <v>21.6</v>
       </c>
       <c r="I32" s="48" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -8588,16 +8564,16 @@
         <v>225</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C33" s="43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D33" s="43">
         <v>1</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F33" s="43">
         <v>2</v>
@@ -8609,7 +8585,7 @@
         <v>21.6</v>
       </c>
       <c r="I33" s="48" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -8617,16 +8593,16 @@
         <v>226</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D34" s="43">
         <v>1</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F34" s="43">
         <v>2</v>
@@ -8638,7 +8614,7 @@
         <v>21.6</v>
       </c>
       <c r="I34" s="48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -8646,16 +8622,16 @@
         <v>267</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D35" s="43">
         <v>1</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F35" s="43">
         <v>2</v>
@@ -8667,7 +8643,7 @@
         <v>27.1</v>
       </c>
       <c r="I35" s="48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -8675,16 +8651,16 @@
         <v>275</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D36" s="43">
         <v>1</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F36" s="43">
         <v>2</v>
@@ -8696,7 +8672,7 @@
         <v>27.1</v>
       </c>
       <c r="I36" s="48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -8704,16 +8680,16 @@
         <v>171</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D37" s="43">
         <v>1</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F37" s="43">
         <v>2</v>
@@ -8725,7 +8701,7 @@
         <v>27.1</v>
       </c>
       <c r="I37" s="48" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -8733,16 +8709,16 @@
         <v>215</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D38" s="43">
         <v>1</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F38" s="43">
         <v>2</v>
@@ -8754,7 +8730,7 @@
         <v>27.1</v>
       </c>
       <c r="I38" s="48" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -8762,16 +8738,16 @@
         <v>262</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D39" s="43">
         <v>1</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F39" s="43">
         <v>2</v>
@@ -8783,7 +8759,7 @@
         <v>27.12</v>
       </c>
       <c r="I39" s="48" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -8791,16 +8767,16 @@
         <v>116</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D40" s="43">
         <v>1</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F40" s="43">
         <v>2</v>
@@ -8812,7 +8788,7 @@
         <v>27.12</v>
       </c>
       <c r="I40" s="48" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -8820,16 +8796,16 @@
         <v>253</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D41" s="43">
         <v>1</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F41" s="43">
         <v>2</v>
@@ -8841,7 +8817,7 @@
         <v>27.12</v>
       </c>
       <c r="I41" s="48" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -8849,16 +8825,16 @@
         <v>268</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D42" s="43">
         <v>1</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F42" s="43">
         <v>2</v>
@@ -8870,7 +8846,7 @@
         <v>27.14</v>
       </c>
       <c r="I42" s="48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -8878,16 +8854,16 @@
         <v>264</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D43" s="43">
         <v>1</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F43" s="43">
         <v>2</v>
@@ -8899,7 +8875,7 @@
         <v>27.14</v>
       </c>
       <c r="I43" s="48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -8907,16 +8883,16 @@
         <v>265</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D44" s="43">
         <v>1</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F44" s="43">
         <v>2</v>
@@ -8928,7 +8904,7 @@
         <v>27.2</v>
       </c>
       <c r="I44" s="48" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -8936,16 +8912,16 @@
         <v>266</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D45" s="43">
         <v>1</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F45" s="43">
         <v>2</v>
@@ -8957,7 +8933,7 @@
         <v>27.2</v>
       </c>
       <c r="I45" s="48" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -8965,16 +8941,16 @@
         <v>277</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D46" s="43">
         <v>1</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F46" s="43">
         <v>2</v>
@@ -8986,7 +8962,7 @@
         <v>27.3</v>
       </c>
       <c r="I46" s="48" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -8994,16 +8970,16 @@
         <v>258</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D47" s="43">
         <v>1</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F47" s="43">
         <v>2</v>
@@ -9015,7 +8991,7 @@
         <v>27.3</v>
       </c>
       <c r="I47" s="48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -9023,16 +8999,16 @@
         <v>257</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D48" s="43">
         <v>1</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F48" s="43">
         <v>2</v>
@@ -9044,7 +9020,7 @@
         <v>27.3</v>
       </c>
       <c r="I48" s="48" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -9052,16 +9028,16 @@
         <v>274</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D49" s="43">
         <v>1</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F49" s="43">
         <v>2</v>
@@ -9073,7 +9049,7 @@
         <v>27.4</v>
       </c>
       <c r="I49" s="48" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -9081,16 +9057,16 @@
         <v>259</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D50" s="43">
         <v>1</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F50" s="43">
         <v>2</v>
@@ -9102,7 +9078,7 @@
         <v>27.4</v>
       </c>
       <c r="I50" s="48" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -9110,16 +9086,16 @@
         <v>255</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D51" s="43">
         <v>1</v>
       </c>
       <c r="E51" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F51" s="43">
         <v>2</v>
@@ -9131,7 +9107,7 @@
         <v>27.4</v>
       </c>
       <c r="I51" s="48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -9139,16 +9115,16 @@
         <v>263</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D52" s="43">
         <v>1</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F52" s="43">
         <v>2</v>
@@ -9160,7 +9136,7 @@
         <v>27.5</v>
       </c>
       <c r="I52" s="48" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -9168,16 +9144,16 @@
         <v>261</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D53" s="43">
         <v>1</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F53" s="43">
         <v>2</v>
@@ -9189,7 +9165,7 @@
         <v>27.5</v>
       </c>
       <c r="I53" s="48" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -9197,16 +9173,16 @@
         <v>271</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D54" s="43">
         <v>1</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F54" s="43">
         <v>2</v>
@@ -9218,7 +9194,7 @@
         <v>27.6</v>
       </c>
       <c r="I54" s="48" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -9226,16 +9202,16 @@
         <v>260</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D55" s="43">
         <v>1</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F55" s="43">
         <v>2</v>
@@ -9247,7 +9223,7 @@
         <v>27.6</v>
       </c>
       <c r="I55" s="48" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -9255,16 +9231,16 @@
         <v>273</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D56" s="43">
         <v>1</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F56" s="43">
         <v>2</v>
@@ -9276,7 +9252,7 @@
         <v>27.7</v>
       </c>
       <c r="I56" s="48" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -9284,16 +9260,16 @@
         <v>272</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D57" s="43">
         <v>1</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F57" s="43">
         <v>2</v>
@@ -9305,7 +9281,7 @@
         <v>27.7</v>
       </c>
       <c r="I57" s="48" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -9313,16 +9289,16 @@
         <v>256</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D58" s="43">
         <v>1</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F58" s="43">
         <v>2</v>
@@ -9334,7 +9310,7 @@
         <v>27.7</v>
       </c>
       <c r="I58" s="48" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -9342,16 +9318,16 @@
         <v>270</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D59" s="43">
         <v>1</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F59" s="43">
         <v>2</v>
@@ -9363,7 +9339,7 @@
         <v>27.7</v>
       </c>
       <c r="I59" s="48" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -9371,16 +9347,16 @@
         <v>269</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D60" s="43">
         <v>1</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F60" s="43">
         <v>2</v>
@@ -9392,7 +9368,7 @@
         <v>27.7</v>
       </c>
       <c r="I60" s="48" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -9400,16 +9376,16 @@
         <v>251</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D61" s="43">
         <v>1</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F61" s="43">
         <v>2</v>
@@ -9421,7 +9397,7 @@
         <v>27.7</v>
       </c>
       <c r="I61" s="48" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -9429,16 +9405,16 @@
         <v>252</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D62" s="43">
         <v>1</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F62" s="43">
         <v>2</v>
@@ -9450,7 +9426,7 @@
         <v>27.7</v>
       </c>
       <c r="I62" s="48" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -9458,16 +9434,16 @@
         <v>250</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D63" s="43">
         <v>1</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F63" s="43">
         <v>2</v>
@@ -9479,7 +9455,7 @@
         <v>27.7</v>
       </c>
       <c r="I63" s="48" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -9487,16 +9463,16 @@
         <v>249</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D64" s="43">
         <v>1</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F64" s="43">
         <v>2</v>
@@ -9508,7 +9484,7 @@
         <v>27.7</v>
       </c>
       <c r="I64" s="48" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -9516,16 +9492,16 @@
         <v>254</v>
       </c>
       <c r="B65" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D65" s="43">
         <v>1</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F65" s="43">
         <v>2</v>
@@ -9537,7 +9513,7 @@
         <v>27.7</v>
       </c>
       <c r="I65" s="48" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -9545,16 +9521,16 @@
         <v>248</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D66" s="43">
         <v>1</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F66" s="43">
         <v>2</v>
@@ -9566,7 +9542,7 @@
         <v>27.8</v>
       </c>
       <c r="I66" s="48" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -9574,16 +9550,16 @@
         <v>214</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C67" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D67" s="43">
         <v>1</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F67" s="43">
         <v>2</v>
@@ -9595,7 +9571,7 @@
         <v>27.8</v>
       </c>
       <c r="I67" s="48" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -9603,16 +9579,16 @@
         <v>213</v>
       </c>
       <c r="B68" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D68" s="43">
         <v>1</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F68" s="43">
         <v>2</v>
@@ -9624,7 +9600,7 @@
         <v>27.8</v>
       </c>
       <c r="I68" s="48" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -9632,16 +9608,16 @@
         <v>217</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D69" s="43">
         <v>1</v>
       </c>
       <c r="E69" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F69" s="43">
         <v>2</v>
@@ -9653,7 +9629,7 @@
         <v>27.8</v>
       </c>
       <c r="I69" s="48" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -9661,16 +9637,16 @@
         <v>216</v>
       </c>
       <c r="B70" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D70" s="43">
         <v>1</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F70" s="43">
         <v>2</v>
@@ -9682,7 +9658,7 @@
         <v>27.8</v>
       </c>
       <c r="I70" s="48" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -9690,16 +9666,16 @@
         <v>212</v>
       </c>
       <c r="B71" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D71" s="43">
         <v>1</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F71" s="43">
         <v>2</v>
@@ -9711,7 +9687,7 @@
         <v>27.9</v>
       </c>
       <c r="I71" s="48" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -9719,16 +9695,16 @@
         <v>172</v>
       </c>
       <c r="B72" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C72" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D72" s="43">
         <v>1</v>
       </c>
       <c r="E72" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F72" s="43">
         <v>2</v>
@@ -9740,7 +9716,7 @@
         <v>27.9</v>
       </c>
       <c r="I72" s="48" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -9748,16 +9724,16 @@
         <v>123</v>
       </c>
       <c r="B73" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C73" s="43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D73" s="43">
         <v>1</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F73" s="43">
         <v>3</v>
@@ -9769,7 +9745,7 @@
         <v>34.1</v>
       </c>
       <c r="I73" s="48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -9777,16 +9753,16 @@
         <v>122</v>
       </c>
       <c r="B74" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C74" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D74" s="43">
         <v>1</v>
       </c>
       <c r="E74" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F74" s="43">
         <v>3</v>
@@ -9798,7 +9774,7 @@
         <v>34.1</v>
       </c>
       <c r="I74" s="48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -9806,16 +9782,16 @@
         <v>126</v>
       </c>
       <c r="B75" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D75" s="43">
         <v>1</v>
       </c>
       <c r="E75" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F75" s="43">
         <v>3</v>
@@ -9827,7 +9803,7 @@
         <v>34.1</v>
       </c>
       <c r="I75" s="48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -9835,16 +9811,16 @@
         <v>134</v>
       </c>
       <c r="B76" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D76" s="43">
         <v>1</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F76" s="43">
         <v>3</v>
@@ -9856,7 +9832,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I76" s="48" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -9864,16 +9840,16 @@
         <v>132</v>
       </c>
       <c r="B77" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C77" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D77" s="43">
         <v>1</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F77" s="43">
         <v>3</v>
@@ -9885,7 +9861,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I77" s="48" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -9893,16 +9869,16 @@
         <v>142</v>
       </c>
       <c r="B78" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C78" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D78" s="43">
         <v>1</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F78" s="43">
         <v>3</v>
@@ -9914,7 +9890,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I78" s="48" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -9922,16 +9898,16 @@
         <v>144</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C79" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D79" s="43">
         <v>1</v>
       </c>
       <c r="E79" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F79" s="43">
         <v>3</v>
@@ -9943,7 +9919,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I79" s="48" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -9951,16 +9927,16 @@
         <v>145</v>
       </c>
       <c r="B80" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C80" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D80" s="43">
         <v>1</v>
       </c>
       <c r="E80" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F80" s="43">
         <v>3</v>
@@ -9972,7 +9948,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I80" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -9980,16 +9956,16 @@
         <v>178</v>
       </c>
       <c r="B81" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C81" s="43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D81" s="43">
         <v>1</v>
       </c>
       <c r="E81" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F81" s="43">
         <v>3</v>
@@ -10001,7 +9977,7 @@
         <v>34.299999999999997</v>
       </c>
       <c r="I81" s="48" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -10009,16 +9985,16 @@
         <v>158</v>
       </c>
       <c r="B82" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C82" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D82" s="43">
         <v>1</v>
       </c>
       <c r="E82" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F82" s="43">
         <v>3</v>
@@ -10030,7 +10006,7 @@
         <v>34.4</v>
       </c>
       <c r="I82" s="48" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -10038,16 +10014,16 @@
         <v>131</v>
       </c>
       <c r="B83" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C83" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D83" s="43">
         <v>1</v>
       </c>
       <c r="E83" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F83" s="43">
         <v>3</v>
@@ -10059,7 +10035,7 @@
         <v>34.4</v>
       </c>
       <c r="I83" s="48" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -10067,16 +10043,16 @@
         <v>177</v>
       </c>
       <c r="B84" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C84" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D84" s="43">
         <v>1</v>
       </c>
       <c r="E84" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F84" s="43">
         <v>3</v>
@@ -10088,7 +10064,7 @@
         <v>37.1</v>
       </c>
       <c r="I84" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -10096,16 +10072,16 @@
         <v>114</v>
       </c>
       <c r="B85" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C85" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D85" s="43">
         <v>1</v>
       </c>
       <c r="E85" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F85" s="43">
         <v>3</v>
@@ -10117,7 +10093,7 @@
         <v>37.1</v>
       </c>
       <c r="I85" s="48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -10125,16 +10101,16 @@
         <v>115</v>
       </c>
       <c r="B86" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C86" s="43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D86" s="43">
         <v>1</v>
       </c>
       <c r="E86" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F86" s="43">
         <v>3</v>
@@ -10146,7 +10122,7 @@
         <v>37.1</v>
       </c>
       <c r="I86" s="48" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -10154,16 +10130,16 @@
         <v>117</v>
       </c>
       <c r="B87" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C87" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D87" s="43">
         <v>1</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F87" s="43">
         <v>3</v>
@@ -10175,7 +10151,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="I87" s="48" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -10183,16 +10159,16 @@
         <v>118</v>
       </c>
       <c r="B88" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C88" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D88" s="43">
         <v>1</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F88" s="43">
         <v>3</v>
@@ -10204,7 +10180,7 @@
         <v>37.200000000000003</v>
       </c>
       <c r="I88" s="48" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -10212,16 +10188,16 @@
         <v>119</v>
       </c>
       <c r="B89" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C89" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D89" s="43">
         <v>1</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F89" s="43">
         <v>3</v>
@@ -10233,7 +10209,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="I89" s="48" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -10241,16 +10217,16 @@
         <v>121</v>
       </c>
       <c r="B90" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D90" s="43">
         <v>1</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F90" s="43">
         <v>3</v>
@@ -10262,7 +10238,7 @@
         <v>37.299999999999997</v>
       </c>
       <c r="I90" s="48" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -10270,16 +10246,16 @@
         <v>120</v>
       </c>
       <c r="B91" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C91" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D91" s="43">
         <v>1</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F91" s="43">
         <v>3</v>
@@ -10291,7 +10267,7 @@
         <v>37.4</v>
       </c>
       <c r="I91" s="48" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -10299,16 +10275,16 @@
         <v>112</v>
       </c>
       <c r="B92" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D92" s="43">
         <v>1</v>
       </c>
       <c r="E92" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F92" s="43">
         <v>3</v>
@@ -10320,7 +10296,7 @@
         <v>37.4</v>
       </c>
       <c r="I92" s="48" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -10328,16 +10304,16 @@
         <v>113</v>
       </c>
       <c r="B93" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C93" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D93" s="43">
         <v>1</v>
       </c>
       <c r="E93" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F93" s="43">
         <v>3</v>
@@ -10349,7 +10325,7 @@
         <v>37.4</v>
       </c>
       <c r="I93" s="48" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -10357,16 +10333,16 @@
         <v>148</v>
       </c>
       <c r="B94" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C94" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D94" s="43">
         <v>1</v>
       </c>
       <c r="E94" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F94" s="43">
         <v>4</v>
@@ -10378,7 +10354,7 @@
         <v>41.1</v>
       </c>
       <c r="I94" s="48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -10386,16 +10362,16 @@
         <v>150</v>
       </c>
       <c r="B95" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C95" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D95" s="43">
         <v>1</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F95" s="43">
         <v>4</v>
@@ -10407,7 +10383,7 @@
         <v>41.1</v>
       </c>
       <c r="I95" s="48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -10415,16 +10391,16 @@
         <v>151</v>
       </c>
       <c r="B96" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C96" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D96" s="43">
         <v>1</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F96" s="43">
         <v>4</v>
@@ -10436,7 +10412,7 @@
         <v>41.1</v>
       </c>
       <c r="I96" s="48" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -10444,16 +10420,16 @@
         <v>157</v>
       </c>
       <c r="B97" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C97" s="43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D97" s="43">
         <v>1</v>
       </c>
       <c r="E97" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F97" s="43">
         <v>4</v>
@@ -10465,7 +10441,7 @@
         <v>41.1</v>
       </c>
       <c r="I97" s="48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -10473,16 +10449,16 @@
         <v>156</v>
       </c>
       <c r="B98" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C98" s="43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D98" s="43">
         <v>1</v>
       </c>
       <c r="E98" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F98" s="43">
         <v>4</v>
@@ -10494,7 +10470,7 @@
         <v>41.2</v>
       </c>
       <c r="I98" s="48" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -10502,16 +10478,16 @@
         <v>163</v>
       </c>
       <c r="B99" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C99" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D99" s="43">
         <v>1</v>
       </c>
       <c r="E99" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F99" s="43">
         <v>4</v>
@@ -10523,7 +10499,7 @@
         <v>41.2</v>
       </c>
       <c r="I99" s="48" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -10531,16 +10507,16 @@
         <v>175</v>
       </c>
       <c r="B100" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C100" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D100" s="43">
         <v>1</v>
       </c>
       <c r="E100" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F100" s="43">
         <v>4</v>
@@ -10552,7 +10528,7 @@
         <v>41.2</v>
       </c>
       <c r="I100" s="48" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -10560,16 +10536,16 @@
         <v>169</v>
       </c>
       <c r="B101" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C101" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D101" s="43">
         <v>1</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F101" s="43">
         <v>4</v>
@@ -10581,7 +10557,7 @@
         <v>41.2</v>
       </c>
       <c r="I101" s="48" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -10589,16 +10565,16 @@
         <v>176</v>
       </c>
       <c r="B102" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C102" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D102" s="43">
         <v>1</v>
       </c>
       <c r="E102" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F102" s="43">
         <v>4</v>
@@ -10610,7 +10586,7 @@
         <v>41.3</v>
       </c>
       <c r="I102" s="48" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -10618,16 +10594,16 @@
         <v>189</v>
       </c>
       <c r="B103" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C103" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D103" s="43">
         <v>1</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F103" s="43">
         <v>4</v>
@@ -10639,7 +10615,7 @@
         <v>41.3</v>
       </c>
       <c r="I103" s="48" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -10647,16 +10623,16 @@
         <v>170</v>
       </c>
       <c r="B104" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C104" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D104" s="43">
         <v>1</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F104" s="43">
         <v>4</v>
@@ -10668,7 +10644,7 @@
         <v>41.3</v>
       </c>
       <c r="I104" s="48" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -10676,16 +10652,16 @@
         <v>202</v>
       </c>
       <c r="B105" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C105" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D105" s="43">
         <v>1</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F105" s="43">
         <v>4</v>
@@ -10697,7 +10673,7 @@
         <v>47.1</v>
       </c>
       <c r="I105" s="48" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -10705,16 +10681,16 @@
         <v>203</v>
       </c>
       <c r="B106" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C106" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D106" s="43">
         <v>1</v>
       </c>
       <c r="E106" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F106" s="43">
         <v>4</v>
@@ -10726,7 +10702,7 @@
         <v>47.1</v>
       </c>
       <c r="I106" s="48" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -10734,16 +10710,16 @@
         <v>208</v>
       </c>
       <c r="B107" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C107" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D107" s="43">
         <v>1</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F107" s="43">
         <v>4</v>
@@ -10755,7 +10731,7 @@
         <v>47.1</v>
       </c>
       <c r="I107" s="48" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -10763,16 +10739,16 @@
         <v>209</v>
       </c>
       <c r="B108" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C108" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D108" s="43">
         <v>1</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F108" s="43">
         <v>4</v>
@@ -10784,7 +10760,7 @@
         <v>47.1</v>
       </c>
       <c r="I108" s="48" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -10792,16 +10768,16 @@
         <v>210</v>
       </c>
       <c r="B109" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C109" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D109" s="43">
         <v>1</v>
       </c>
       <c r="E109" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F109" s="43">
         <v>4</v>
@@ -10813,7 +10789,7 @@
         <v>47.1</v>
       </c>
       <c r="I109" s="48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -10821,16 +10797,16 @@
         <v>211</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C110" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D110" s="43">
         <v>1</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F110" s="43">
         <v>4</v>
@@ -10842,7 +10818,7 @@
         <v>47.1</v>
       </c>
       <c r="I110" s="48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -10850,16 +10826,16 @@
         <v>207</v>
       </c>
       <c r="B111" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C111" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D111" s="43">
         <v>1</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F111" s="43">
         <v>4</v>
@@ -10871,7 +10847,7 @@
         <v>47.2</v>
       </c>
       <c r="I111" s="48" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -10879,16 +10855,16 @@
         <v>206</v>
       </c>
       <c r="B112" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C112" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D112" s="43">
         <v>1</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F112" s="43">
         <v>4</v>
@@ -10900,7 +10876,7 @@
         <v>47.2</v>
       </c>
       <c r="I112" s="48" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -10908,16 +10884,16 @@
         <v>193</v>
       </c>
       <c r="B113" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C113" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D113" s="43">
         <v>1</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F113" s="43">
         <v>4</v>
@@ -10926,10 +10902,10 @@
         <v>47</v>
       </c>
       <c r="H113" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I113" s="48" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -10937,16 +10913,16 @@
         <v>194</v>
       </c>
       <c r="B114" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C114" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D114" s="43">
         <v>1</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F114" s="43">
         <v>4</v>
@@ -10955,10 +10931,10 @@
         <v>47</v>
       </c>
       <c r="H114" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="I114" s="48" t="s">
         <v>538</v>
-      </c>
-      <c r="I114" s="48" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -10966,16 +10942,16 @@
         <v>247</v>
       </c>
       <c r="B115" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C115" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D115" s="43">
         <v>1</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F115" s="43">
         <v>4</v>
@@ -10984,10 +10960,10 @@
         <v>47</v>
       </c>
       <c r="H115" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I115" s="48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -10995,16 +10971,16 @@
         <v>245</v>
       </c>
       <c r="B116" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C116" s="43" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D116" s="43">
         <v>1</v>
       </c>
       <c r="E116" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F116" s="43">
         <v>4</v>
@@ -11013,10 +10989,10 @@
         <v>47</v>
       </c>
       <c r="H116" s="43" t="s">
+        <v>540</v>
+      </c>
+      <c r="I116" s="48" t="s">
         <v>541</v>
-      </c>
-      <c r="I116" s="48" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -11024,16 +11000,16 @@
         <v>204</v>
       </c>
       <c r="B117" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C117" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D117" s="43">
         <v>1</v>
       </c>
       <c r="E117" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F117" s="43">
         <v>4</v>
@@ -11042,10 +11018,10 @@
         <v>47</v>
       </c>
       <c r="H117" s="43" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I117" s="48" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -11053,16 +11029,16 @@
         <v>246</v>
       </c>
       <c r="B118" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C118" s="43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D118" s="43">
         <v>1</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F118" s="43">
         <v>4</v>
@@ -11071,10 +11047,10 @@
         <v>47</v>
       </c>
       <c r="H118" s="43" t="s">
+        <v>543</v>
+      </c>
+      <c r="I118" s="48" t="s">
         <v>544</v>
-      </c>
-      <c r="I118" s="48" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -11082,16 +11058,16 @@
         <v>205</v>
       </c>
       <c r="B119" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C119" s="43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D119" s="43">
         <v>1</v>
       </c>
       <c r="E119" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F119" s="43">
         <v>4</v>
@@ -11100,10 +11076,10 @@
         <v>47</v>
       </c>
       <c r="H119" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I119" s="48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -11111,16 +11087,16 @@
         <v>244</v>
       </c>
       <c r="B120" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C120" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D120" s="43">
         <v>1</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F120" s="43">
         <v>4</v>
@@ -11129,10 +11105,10 @@
         <v>47</v>
       </c>
       <c r="H120" s="43" t="s">
+        <v>546</v>
+      </c>
+      <c r="I120" s="48" t="s">
         <v>547</v>
-      </c>
-      <c r="I120" s="48" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -11140,16 +11116,16 @@
         <v>152</v>
       </c>
       <c r="B121" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C121" s="43" t="s">
+        <v>548</v>
+      </c>
+      <c r="D121" s="43">
+        <v>1</v>
+      </c>
+      <c r="E121" s="43" t="s">
         <v>549</v>
-      </c>
-      <c r="D121" s="43">
-        <v>1</v>
-      </c>
-      <c r="E121" s="43" t="s">
-        <v>550</v>
       </c>
       <c r="F121" s="43">
         <v>5</v>
@@ -11161,7 +11137,7 @@
         <v>57.5</v>
       </c>
       <c r="I121" s="48" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -11169,16 +11145,16 @@
         <v>159</v>
       </c>
       <c r="B122" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C122" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D122" s="43">
         <v>1</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F122" s="43">
         <v>5</v>
@@ -11190,7 +11166,7 @@
         <v>57.5</v>
       </c>
       <c r="I122" s="48" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -11198,16 +11174,16 @@
         <v>191</v>
       </c>
       <c r="B123" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D123" s="43">
         <v>1</v>
       </c>
       <c r="E123" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F123" s="43">
         <v>10</v>
@@ -11219,7 +11195,7 @@
         <v>58.4</v>
       </c>
       <c r="I123" s="48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -11227,16 +11203,16 @@
         <v>190</v>
       </c>
       <c r="B124" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D124" s="43">
         <v>1</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F124" s="43">
         <v>10</v>
@@ -11248,7 +11224,7 @@
         <v>58.4</v>
       </c>
       <c r="I124" s="48" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -11256,16 +11232,16 @@
         <v>192</v>
       </c>
       <c r="B125" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D125" s="43">
         <v>1</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F125" s="43">
         <v>10</v>
@@ -11277,7 +11253,7 @@
         <v>58.4</v>
       </c>
       <c r="I125" s="48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -11285,16 +11261,16 @@
         <v>174</v>
       </c>
       <c r="B126" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C126" s="43" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D126" s="43">
         <v>1</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F126" s="43">
         <v>10</v>
@@ -11306,7 +11282,7 @@
         <v>58.4</v>
       </c>
       <c r="I126" s="48" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -11314,16 +11290,16 @@
         <v>168</v>
       </c>
       <c r="B127" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C127" s="43" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D127" s="43">
         <v>1</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F127" s="43">
         <v>10</v>
@@ -11335,7 +11311,7 @@
         <v>58.5</v>
       </c>
       <c r="I127" s="48" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -11343,16 +11319,16 @@
         <v>173</v>
       </c>
       <c r="B128" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C128" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D128" s="43">
         <v>1</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F128" s="43">
         <v>10</v>
@@ -11364,7 +11340,7 @@
         <v>58.5</v>
       </c>
       <c r="I128" s="48" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -11372,16 +11348,16 @@
         <v>133</v>
       </c>
       <c r="B129" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C129" s="43" t="s">
+        <v>557</v>
+      </c>
+      <c r="D129" s="43">
+        <v>1</v>
+      </c>
+      <c r="E129" s="43" t="s">
         <v>558</v>
-      </c>
-      <c r="D129" s="43">
-        <v>1</v>
-      </c>
-      <c r="E129" s="43" t="s">
-        <v>559</v>
       </c>
       <c r="F129" s="43">
         <v>7</v>
@@ -11390,10 +11366,10 @@
         <v>71</v>
       </c>
       <c r="H129" s="43" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I129" s="48" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -11401,16 +11377,16 @@
         <v>130</v>
       </c>
       <c r="B130" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C130" s="43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D130" s="43">
         <v>1</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F130" s="43">
         <v>7</v>
@@ -11419,10 +11395,10 @@
         <v>71</v>
       </c>
       <c r="H130" s="43" t="s">
+        <v>559</v>
+      </c>
+      <c r="I130" s="48" t="s">
         <v>560</v>
-      </c>
-      <c r="I130" s="48" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -11430,16 +11406,16 @@
         <v>143</v>
       </c>
       <c r="B131" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C131" s="43" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D131" s="43">
         <v>1</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F131" s="43">
         <v>8</v>
@@ -11451,7 +11427,7 @@
         <v>87.1</v>
       </c>
       <c r="I131" s="48" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -11459,16 +11435,16 @@
         <v>146</v>
       </c>
       <c r="B132" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C132" s="43" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D132" s="43">
         <v>1</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F132" s="43">
         <v>8</v>
@@ -11480,7 +11456,7 @@
         <v>87.1</v>
       </c>
       <c r="I132" s="48" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -11488,16 +11464,16 @@
         <v>149</v>
       </c>
       <c r="B133" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C133" s="43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D133" s="43">
         <v>1</v>
       </c>
       <c r="E133" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F133" s="43">
         <v>8</v>
@@ -11509,7 +11485,7 @@
         <v>87.1</v>
       </c>
       <c r="I133" s="48" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -11517,16 +11493,16 @@
         <v>147</v>
       </c>
       <c r="B134" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C134" s="43" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D134" s="43">
         <v>1</v>
       </c>
       <c r="E134" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F134" s="43">
         <v>8</v>
@@ -11538,7 +11514,7 @@
         <v>87.1</v>
       </c>
       <c r="I134" s="48" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -11546,16 +11522,16 @@
         <v>155</v>
       </c>
       <c r="B135" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C135" s="43" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D135" s="43">
         <v>1</v>
       </c>
       <c r="E135" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F135" s="43">
         <v>8</v>
@@ -11567,7 +11543,7 @@
         <v>87.2</v>
       </c>
       <c r="I135" s="48" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -11575,16 +11551,16 @@
         <v>154</v>
       </c>
       <c r="B136" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C136" s="43" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D136" s="43">
         <v>1</v>
       </c>
       <c r="E136" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F136" s="43">
         <v>8</v>
@@ -11596,7 +11572,7 @@
         <v>87.2</v>
       </c>
       <c r="I136" s="48" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -11604,16 +11580,16 @@
         <v>160</v>
       </c>
       <c r="B137" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C137" s="43" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D137" s="43">
         <v>1</v>
       </c>
       <c r="E137" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F137" s="43">
         <v>8</v>
@@ -11625,7 +11601,7 @@
         <v>87.2</v>
       </c>
       <c r="I137" s="48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -11633,16 +11609,16 @@
         <v>164</v>
       </c>
       <c r="B138" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C138" s="43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D138" s="43">
         <v>1</v>
       </c>
       <c r="E138" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F138" s="43">
         <v>8</v>
@@ -11654,7 +11630,7 @@
         <v>87.2</v>
       </c>
       <c r="I138" s="48" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -11662,16 +11638,16 @@
         <v>162</v>
       </c>
       <c r="B139" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C139" s="43" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D139" s="43">
         <v>1</v>
       </c>
       <c r="E139" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F139" s="43">
         <v>8</v>
@@ -11683,7 +11659,7 @@
         <v>87.2</v>
       </c>
       <c r="I139" s="48" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -11691,16 +11667,16 @@
         <v>153</v>
       </c>
       <c r="B140" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D140" s="43">
         <v>1</v>
       </c>
       <c r="E140" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F140" s="43">
         <v>8</v>
@@ -11712,7 +11688,7 @@
         <v>87.2</v>
       </c>
       <c r="I140" s="48" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -11720,16 +11696,16 @@
         <v>167</v>
       </c>
       <c r="B141" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D141" s="43">
         <v>1</v>
       </c>
       <c r="E141" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F141" s="43">
         <v>8</v>
@@ -11741,7 +11717,7 @@
         <v>87.3</v>
       </c>
       <c r="I141" s="48" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -11749,16 +11725,16 @@
         <v>166</v>
       </c>
       <c r="B142" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C142" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D142" s="43">
         <v>1</v>
       </c>
       <c r="E142" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F142" s="43">
         <v>8</v>
@@ -11770,7 +11746,7 @@
         <v>87.3</v>
       </c>
       <c r="I142" s="48" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -11778,16 +11754,16 @@
         <v>165</v>
       </c>
       <c r="B143" s="43" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C143" s="43" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D143" s="43">
         <v>1</v>
       </c>
       <c r="E143" s="43" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F143" s="43">
         <v>8</v>
@@ -11799,7 +11775,7 @@
         <v>87.3</v>
       </c>
       <c r="I143" s="48" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -11828,51 +11804,51 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>575</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>576</v>
       </c>
       <c r="C1" s="44"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" s="43" t="s">
         <v>577</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
+        <v>578</v>
+      </c>
+      <c r="B3" s="43" t="s">
         <v>579</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" s="43" t="s">
         <v>581</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>583</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -11898,57 +11874,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="B1" s="50" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="C1" s="50" t="s">
         <v>587</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
+        <v>588</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>589</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="C2" s="49" t="s">
         <v>590</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
+        <v>591</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="C3" s="49" t="s">
         <v>593</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
+        <v>594</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="C4" s="49" t="s">
         <v>596</v>
-      </c>
-      <c r="C4" s="49" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
+        <v>597</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>598</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="C5" s="49" t="s">
         <v>599</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -11973,34 +11949,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
+        <v>600</v>
+      </c>
+      <c r="B1" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>602</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>603</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="E1" s="51" t="s">
         <v>604</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="F1" s="51" t="s">
         <v>605</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>606</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="H1" s="51" t="s">
         <v>607</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="I1" s="51" t="s">
         <v>608</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="J1" s="51" t="s">
         <v>609</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -12012,17 +11988,17 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>611</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>612</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>613</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>614</v>
       </c>
       <c r="I2" s="18">
         <v>50</v>
@@ -12040,17 +12016,17 @@
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I3" s="18">
         <v>0.1</v>
@@ -12068,17 +12044,17 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I4" s="18">
         <v>0</v>
@@ -12092,21 +12068,21 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I5" s="18">
         <v>1</v>
@@ -12120,21 +12096,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I6" s="18">
         <v>3</v>
@@ -12151,20 +12127,20 @@
         <v>45</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I7" s="18">
         <v>0</v>
@@ -12181,20 +12157,20 @@
         <v>47</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I8" s="18">
         <v>0</v>
@@ -12211,20 +12187,20 @@
         <v>61</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>623</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>624</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I9" s="18">
         <v>0</v>
@@ -12242,17 +12218,17 @@
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I10" s="18">
         <v>0</v>
@@ -12268,19 +12244,19 @@
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>627</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="53" t="s">
         <v>628</v>
       </c>
-      <c r="G11" s="53" t="s">
-        <v>629</v>
-      </c>
       <c r="H11" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I11" s="18">
         <v>0</v>
@@ -12296,19 +12272,19 @@
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>623</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>624</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>631</v>
-      </c>
       <c r="G12" s="53" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I12" s="18">
         <v>0</v>
@@ -12324,17 +12300,17 @@
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I13" s="54">
         <v>0</v>
@@ -12349,20 +12325,20 @@
         <v>73</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I14" s="54">
         <v>0</v>
@@ -12379,20 +12355,20 @@
         <v>75</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I15" s="54">
         <v>0</v>
@@ -12410,17 +12386,17 @@
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I16" s="54">
         <v>0</v>
@@ -12436,17 +12412,17 @@
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I17" s="18">
         <v>0</v>
@@ -12462,17 +12438,17 @@
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="18" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I18" s="18">
         <v>0</v>
@@ -12488,17 +12464,17 @@
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="18" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I19" s="18">
         <v>0</v>
@@ -12516,17 +12492,17 @@
       </c>
       <c r="C20" s="18"/>
       <c r="D20" s="18" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I20" s="18">
         <v>0</v>
@@ -12544,17 +12520,17 @@
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="18" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I21" s="18">
         <v>0</v>
@@ -12572,17 +12548,17 @@
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="18" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I22" s="18">
         <v>0</v>
@@ -12600,17 +12576,17 @@
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I23" s="18">
         <v>0</v>
@@ -12628,17 +12604,17 @@
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I24" s="18">
         <v>0</v>
@@ -12656,17 +12632,17 @@
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>646</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>647</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I25" s="18">
         <v>0</v>
@@ -12684,17 +12660,17 @@
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I26" s="18">
         <v>0</v>
@@ -12712,17 +12688,17 @@
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I27" s="18">
         <v>0</v>
@@ -12752,210 +12728,210 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>650</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>651</v>
+      </c>
+      <c r="B2" t="s">
         <v>652</v>
-      </c>
-      <c r="B2" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>654</v>
+      </c>
+      <c r="B4" t="s">
         <v>655</v>
-      </c>
-      <c r="B4" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B6" t="s">
         <v>658</v>
-      </c>
-      <c r="B6" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>659</v>
+      </c>
+      <c r="B7" t="s">
         <v>660</v>
-      </c>
-      <c r="B7" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B8" t="s">
         <v>662</v>
-      </c>
-      <c r="B8" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>663</v>
+      </c>
+      <c r="B9" t="s">
         <v>664</v>
-      </c>
-      <c r="B9" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>665</v>
+      </c>
+      <c r="B10" t="s">
         <v>666</v>
-      </c>
-      <c r="B10" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>668</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>669</v>
+      </c>
+      <c r="B12" t="s">
         <v>670</v>
-      </c>
-      <c r="B12" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B13" t="s">
         <v>672</v>
-      </c>
-      <c r="B13" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B14" t="s">
         <v>674</v>
-      </c>
-      <c r="B14" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>675</v>
+      </c>
+      <c r="B15" t="s">
         <v>676</v>
-      </c>
-      <c r="B15" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>677</v>
+      </c>
+      <c r="B16" t="s">
         <v>678</v>
-      </c>
-      <c r="B16" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>679</v>
+      </c>
+      <c r="B17" t="s">
         <v>680</v>
-      </c>
-      <c r="B17" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>681</v>
+      </c>
+      <c r="B18" t="s">
         <v>682</v>
-      </c>
-      <c r="B18" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>683</v>
+      </c>
+      <c r="B19" t="s">
         <v>684</v>
-      </c>
-      <c r="B19" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>685</v>
+      </c>
+      <c r="B20" t="s">
         <v>686</v>
-      </c>
-      <c r="B20" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B21" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B22" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>689</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>690</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B25" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>693</v>
+      </c>
+      <c r="B26" t="s">
         <v>694</v>
-      </c>
-      <c r="B26" t="s">
-        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -12986,24 +12962,24 @@
   <sheetData>
     <row r="1" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>128</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -13371,7 +13347,7 @@
         <v>34</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>38</v>
@@ -14211,7 +14187,7 @@
         <v>34</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>38</v>
@@ -14338,7 +14314,7 @@
         <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>38</v>
@@ -14431,9 +14407,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14448,7 +14422,7 @@
         <v>88</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>2</v>
@@ -14457,25 +14431,25 @@
         <v>90</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>93</v>
-      </c>
       <c r="H1" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>97</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>39</v>
@@ -14487,19 +14461,19 @@
         <v>43</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T1" s="10" t="s">
         <v>63</v>
@@ -14517,10 +14491,10 @@
         <v>71</v>
       </c>
       <c r="Y1" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z1" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA1" s="10" t="s">
         <v>77</v>
@@ -14595,7 +14569,9 @@
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -14613,7 +14589,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>2</v>
@@ -14622,16 +14598,16 @@
         <v>90</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G1" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>39</v>
@@ -14643,19 +14619,19 @@
         <v>43</v>
       </c>
       <c r="K1" s="34" t="s">
+        <v>131</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="36" t="s">
         <v>132</v>
-      </c>
-      <c r="L1" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" s="34" t="s">
-        <v>104</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>133</v>
       </c>
       <c r="P1" s="36" t="s">
         <v>63</v>
@@ -14673,10 +14649,10 @@
         <v>71</v>
       </c>
       <c r="U1" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V1" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W1" s="36" t="s">
         <v>77</v>
@@ -14688,7 +14664,7 @@
         <v>81</v>
       </c>
       <c r="Z1" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14701,4 +14677,239 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010065CE7316361DFA48AC876C6112A59FE5" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fb125599c9f9a751b726b9a94d2e235b">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b91c66d6a628c7b1a21e6c64315cfea9" ns2:_="" ns3:_="">
+    <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <xsd:import namespace="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:TaxKeywordTaxHTField" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxKeywordTaxHTField" ma:index="8" nillable="true" ma:taxonomy="true" ma:internalName="TaxKeywordTaxHTField" ma:taxonomyFieldName="TaxKeyword" ma:displayName="Enterprise Keywords" ma:readOnly="false" ma:fieldId="{23f27201-bee3-471e-b2e7-b64fd8b7ca38}" ma:taxonomyMulti="true" ma:sspId="d535ea34-4ec8-4f57-b85b-d8a79460f026" ma:termSetId="00000000-0000-0000-0000-000000000000" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="true" ma:isKeyword="true">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b2cc2698-5fc4-4ff6-b1d3-64e75efa1efc}" ma:internalName="TaxCatchAll" ma:readOnly="false" ma:showField="CatchAllData" ma:web="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{b2cc2698-5fc4-4ff6-b1d3-64e75efa1efc}" ma:internalName="TaxCatchAllLabel" ma:readOnly="false" ma:showField="CatchAllDataLabel" ma:web="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="362c980f-4e38-4cca-bd06-5104ee5993c5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864F3F6A-D368-4B39-8497-4A1C8FB1918F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54479BCD-A237-42C2-A78A-19C5C37B18A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="362c980f-4e38-4cca-bd06-5104ee5993c5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5BA6F5-A7A5-42D9-BA92-638033CC10BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/data/datacall_template/00template/Eel_data_Call_2022_Annex10_Other_Sampling_Data.xlsx
+++ b/data/datacall_template/00template/Eel_data_Call_2022_Annex10_Other_Sampling_Data.xlsx
@@ -13008,7 +13008,7 @@
   <dimension ref="A1:AMI25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13288,7 +13288,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G2:H25</xm:sqref>
+          <xm:sqref>H2:H25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14680,15 +14680,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14869,20 +14866,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864F3F6A-D368-4B39-8497-4A1C8FB1918F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5BA6F5-A7A5-42D9-BA92-638033CC10BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14907,9 +14905,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5BA6F5-A7A5-42D9-BA92-638033CC10BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864F3F6A-D368-4B39-8497-4A1C8FB1918F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/datacall_template/00template/Eel_data_Call_2022_Annex10_Other_Sampling_Data.xlsx
+++ b/data/datacall_template/00template/Eel_data_Call_2022_Annex10_Other_Sampling_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\wg_WGEEL\data\datacall_template\00template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A300B40-AB63-4386-B919-A813E9E7DFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215C689A-FE97-4CB3-9327-072A8EBDED53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16710" windowHeight="15360" tabRatio="500" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16710" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="1" r:id="rId1"/>
@@ -2512,7 +2512,7 @@
     <t>do not use, leave void instead</t>
   </si>
   <si>
-    <t>Indentifier used by data provider to identify the fish in its national database. To avoid confusion of id among countries, please add your cou_code and the year of the datacall before the identifier. For example, fish XXX from France collected in datacall dc2023 should be named FR23_XXX</t>
+    <t xml:space="preserve">Indentifier used by data provider to identify the fish in its national database. </t>
   </si>
 </sst>
 </file>
@@ -4995,7 +4995,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
@@ -5402,7 +5402,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="38.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>691</v>
       </c>
@@ -14785,23 +14785,14 @@
       <c r="H25" s="29"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H25" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>#REF!</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>H2:H25</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16078,7 +16069,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
@@ -16188,15 +16179,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16377,20 +16365,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864F3F6A-D368-4B39-8497-4A1C8FB1918F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5BA6F5-A7A5-42D9-BA92-638033CC10BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -16415,9 +16404,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C5BA6F5-A7A5-42D9-BA92-638033CC10BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{864F3F6A-D368-4B39-8497-4A1C8FB1918F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>